--- a/Sample upcoming events in _ Rome - Barcelona.xlsx
+++ b/Sample upcoming events in _ Rome - Barcelona.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Barcelona" sheetId="2" r:id="rId5"/>
+    <sheet name="Bangalore" sheetId="2" r:id="rId5"/>
     <sheet name="Rome" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
@@ -61,6 +61,9 @@
     </r>
   </si>
   <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
     <t>event</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
       </rPr>
       <t>https://10times.com/sas-barcelona</t>
     </r>
-  </si>
-  <si>
-    <t>Bangalore</t>
   </si>
   <si>
     <t>India</t>
@@ -9021,7 +9021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -9036,11 +9036,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -9049,7 +9049,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -9057,17 +9057,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -9084,7 +9084,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -9092,12 +9092,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9106,33 +9117,22 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9164,28 +9164,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -9203,20 +9203,20 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -9271,8 +9271,8 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -10337,7 +10337,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -10440,7 +10440,7 @@
     <row r="11" ht="13" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -10453,18 +10453,21 @@
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13">
+        <v>10</v>
+      </c>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="7"/>
       <c r="B13" t="s" s="3">
         <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="20"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
@@ -10472,6 +10475,7 @@
       <c r="D14" t="s" s="5">
         <v>8</v>
       </c>
+      <c r="E14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10480,9 +10484,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
-    <hyperlink ref="D10" location="'Barcelona'!R1C1" tooltip="" display="Barcelona"/>
-    <hyperlink ref="D12" location="'Rome'!R1C1" tooltip="" display="Rome"/>
-    <hyperlink ref="D12" location="'Barcelona'!R1C1" tooltip="" display="Barcelona"/>
+    <hyperlink ref="D10" location="'Bangalore'!R1C1" tooltip="" display="Barcelona"/>
+    <hyperlink ref="D12" location="'Bangalore'!R1C1" tooltip="" display="Barcelona"/>
+    <hyperlink ref="D14" location="'Rome'!R1C1" tooltip="" display="Rome"/>
+    <hyperlink ref="D12" location="'Bangalore'!R1C1" tooltip="" display="Bangalore"/>
     <hyperlink ref="D14" location="'Rome'!R1C1" tooltip="" display="Rome"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -10512,45 +10517,45 @@
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s" s="26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s" s="26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s" s="27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s" s="27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s" s="27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s" s="27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s" s="27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s" s="27">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s" s="28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s" s="29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="30">
         <v>23</v>
@@ -10579,7 +10584,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s" s="30">
         <v>23</v>
@@ -10608,7 +10613,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s" s="30">
         <v>23</v>
@@ -10637,7 +10642,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s" s="30">
         <v>23</v>
@@ -10666,7 +10671,7 @@
         <v>37</v>
       </c>
       <c r="D6" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s" s="30">
         <v>23</v>
@@ -10695,7 +10700,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s" s="30">
         <v>23</v>
@@ -10724,7 +10729,7 @@
         <v>43</v>
       </c>
       <c r="D8" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s" s="30">
         <v>23</v>
@@ -10753,7 +10758,7 @@
         <v>46</v>
       </c>
       <c r="D9" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s" s="30">
         <v>23</v>
@@ -10782,7 +10787,7 @@
         <v>49</v>
       </c>
       <c r="D10" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s" s="30">
         <v>23</v>
@@ -10811,7 +10816,7 @@
         <v>51</v>
       </c>
       <c r="D11" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s" s="30">
         <v>23</v>
@@ -10840,7 +10845,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s" s="30">
         <v>23</v>
@@ -10869,7 +10874,7 @@
         <v>57</v>
       </c>
       <c r="D13" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s" s="30">
         <v>23</v>
@@ -10898,7 +10903,7 @@
         <v>59</v>
       </c>
       <c r="D14" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s" s="30">
         <v>23</v>
@@ -10927,7 +10932,7 @@
         <v>62</v>
       </c>
       <c r="D15" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s" s="30">
         <v>23</v>
@@ -10956,7 +10961,7 @@
         <v>65</v>
       </c>
       <c r="D16" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s" s="30">
         <v>23</v>
@@ -10985,7 +10990,7 @@
         <v>69</v>
       </c>
       <c r="D17" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s" s="30">
         <v>23</v>
@@ -11014,7 +11019,7 @@
         <v>71</v>
       </c>
       <c r="D18" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s" s="30">
         <v>23</v>
@@ -11043,7 +11048,7 @@
         <v>73</v>
       </c>
       <c r="D19" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s" s="30">
         <v>23</v>
@@ -11072,7 +11077,7 @@
         <v>76</v>
       </c>
       <c r="D20" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s" s="30">
         <v>23</v>
@@ -11101,7 +11106,7 @@
         <v>79</v>
       </c>
       <c r="D21" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s" s="30">
         <v>23</v>
@@ -11130,7 +11135,7 @@
         <v>82</v>
       </c>
       <c r="D22" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s" s="30">
         <v>23</v>
@@ -11159,7 +11164,7 @@
         <v>84</v>
       </c>
       <c r="D23" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s" s="30">
         <v>23</v>
@@ -11188,7 +11193,7 @@
         <v>87</v>
       </c>
       <c r="D24" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s" s="30">
         <v>23</v>
@@ -11217,7 +11222,7 @@
         <v>90</v>
       </c>
       <c r="D25" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s" s="30">
         <v>23</v>
@@ -11246,7 +11251,7 @@
         <v>93</v>
       </c>
       <c r="D26" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s" s="30">
         <v>23</v>
@@ -11275,7 +11280,7 @@
         <v>96</v>
       </c>
       <c r="D27" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s" s="30">
         <v>23</v>
@@ -11304,7 +11309,7 @@
         <v>99</v>
       </c>
       <c r="D28" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s" s="30">
         <v>23</v>
@@ -11333,7 +11338,7 @@
         <v>101</v>
       </c>
       <c r="D29" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s" s="30">
         <v>23</v>
@@ -11362,7 +11367,7 @@
         <v>104</v>
       </c>
       <c r="D30" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s" s="30">
         <v>23</v>
@@ -11391,7 +11396,7 @@
         <v>107</v>
       </c>
       <c r="D31" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s" s="30">
         <v>23</v>
@@ -11420,7 +11425,7 @@
         <v>110</v>
       </c>
       <c r="D32" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s" s="30">
         <v>23</v>
@@ -11449,7 +11454,7 @@
         <v>113</v>
       </c>
       <c r="D33" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s" s="30">
         <v>23</v>
@@ -11478,7 +11483,7 @@
         <v>116</v>
       </c>
       <c r="D34" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s" s="30">
         <v>23</v>
@@ -11507,7 +11512,7 @@
         <v>119</v>
       </c>
       <c r="D35" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s" s="30">
         <v>23</v>
@@ -11536,7 +11541,7 @@
         <v>122</v>
       </c>
       <c r="D36" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s" s="30">
         <v>23</v>
@@ -11565,7 +11570,7 @@
         <v>124</v>
       </c>
       <c r="D37" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s" s="30">
         <v>23</v>
@@ -11594,7 +11599,7 @@
         <v>126</v>
       </c>
       <c r="D38" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s" s="30">
         <v>23</v>
@@ -11623,7 +11628,7 @@
         <v>128</v>
       </c>
       <c r="D39" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s" s="30">
         <v>23</v>
@@ -11652,7 +11657,7 @@
         <v>131</v>
       </c>
       <c r="D40" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s" s="30">
         <v>23</v>
@@ -11681,7 +11686,7 @@
         <v>133</v>
       </c>
       <c r="D41" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s" s="30">
         <v>23</v>
@@ -11710,7 +11715,7 @@
         <v>135</v>
       </c>
       <c r="D42" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s" s="30">
         <v>23</v>
@@ -11739,7 +11744,7 @@
         <v>138</v>
       </c>
       <c r="D43" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s" s="30">
         <v>23</v>
@@ -11768,7 +11773,7 @@
         <v>141</v>
       </c>
       <c r="D44" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s" s="30">
         <v>23</v>
@@ -11797,7 +11802,7 @@
         <v>143</v>
       </c>
       <c r="D45" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s" s="30">
         <v>23</v>
@@ -11826,7 +11831,7 @@
         <v>146</v>
       </c>
       <c r="D46" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s" s="30">
         <v>23</v>
@@ -11855,7 +11860,7 @@
         <v>149</v>
       </c>
       <c r="D47" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s" s="30">
         <v>23</v>
@@ -11884,7 +11889,7 @@
         <v>151</v>
       </c>
       <c r="D48" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s" s="30">
         <v>23</v>
@@ -11913,7 +11918,7 @@
         <v>153</v>
       </c>
       <c r="D49" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s" s="30">
         <v>23</v>
@@ -11942,7 +11947,7 @@
         <v>155</v>
       </c>
       <c r="D50" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s" s="30">
         <v>23</v>
@@ -11971,7 +11976,7 @@
         <v>158</v>
       </c>
       <c r="D51" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s" s="30">
         <v>23</v>
@@ -12000,7 +12005,7 @@
         <v>161</v>
       </c>
       <c r="D52" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s" s="30">
         <v>23</v>
@@ -12029,7 +12034,7 @@
         <v>164</v>
       </c>
       <c r="D53" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s" s="30">
         <v>23</v>
@@ -12058,7 +12063,7 @@
         <v>166</v>
       </c>
       <c r="D54" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s" s="30">
         <v>23</v>
@@ -12087,7 +12092,7 @@
         <v>168</v>
       </c>
       <c r="D55" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s" s="30">
         <v>23</v>
@@ -12116,7 +12121,7 @@
         <v>171</v>
       </c>
       <c r="D56" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s" s="30">
         <v>23</v>
@@ -12145,7 +12150,7 @@
         <v>173</v>
       </c>
       <c r="D57" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s" s="30">
         <v>23</v>
@@ -12174,7 +12179,7 @@
         <v>176</v>
       </c>
       <c r="D58" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s" s="30">
         <v>23</v>
@@ -12203,7 +12208,7 @@
         <v>179</v>
       </c>
       <c r="D59" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s" s="30">
         <v>23</v>
@@ -12232,7 +12237,7 @@
         <v>181</v>
       </c>
       <c r="D60" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s" s="30">
         <v>23</v>
@@ -12261,7 +12266,7 @@
         <v>183</v>
       </c>
       <c r="D61" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s" s="30">
         <v>23</v>
@@ -12290,7 +12295,7 @@
         <v>185</v>
       </c>
       <c r="D62" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s" s="30">
         <v>23</v>
@@ -12319,7 +12324,7 @@
         <v>187</v>
       </c>
       <c r="D63" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s" s="30">
         <v>23</v>
@@ -12348,7 +12353,7 @@
         <v>189</v>
       </c>
       <c r="D64" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s" s="30">
         <v>23</v>
@@ -12377,7 +12382,7 @@
         <v>191</v>
       </c>
       <c r="D65" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s" s="30">
         <v>23</v>
@@ -12406,7 +12411,7 @@
         <v>193</v>
       </c>
       <c r="D66" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s" s="30">
         <v>23</v>
@@ -12435,7 +12440,7 @@
         <v>195</v>
       </c>
       <c r="D67" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s" s="30">
         <v>23</v>
@@ -12464,7 +12469,7 @@
         <v>197</v>
       </c>
       <c r="D68" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s" s="30">
         <v>23</v>
@@ -12493,7 +12498,7 @@
         <v>199</v>
       </c>
       <c r="D69" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s" s="30">
         <v>23</v>
@@ -12522,7 +12527,7 @@
         <v>201</v>
       </c>
       <c r="D70" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s" s="30">
         <v>23</v>
@@ -12551,7 +12556,7 @@
         <v>203</v>
       </c>
       <c r="D71" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s" s="30">
         <v>23</v>
@@ -12580,7 +12585,7 @@
         <v>205</v>
       </c>
       <c r="D72" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s" s="30">
         <v>23</v>
@@ -12609,7 +12614,7 @@
         <v>207</v>
       </c>
       <c r="D73" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s" s="30">
         <v>23</v>
@@ -12638,7 +12643,7 @@
         <v>209</v>
       </c>
       <c r="D74" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s" s="30">
         <v>23</v>
@@ -12667,7 +12672,7 @@
         <v>212</v>
       </c>
       <c r="D75" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s" s="30">
         <v>23</v>
@@ -12696,7 +12701,7 @@
         <v>215</v>
       </c>
       <c r="D76" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s" s="30">
         <v>23</v>
@@ -12725,7 +12730,7 @@
         <v>218</v>
       </c>
       <c r="D77" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s" s="30">
         <v>23</v>
@@ -12754,7 +12759,7 @@
         <v>220</v>
       </c>
       <c r="D78" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s" s="30">
         <v>23</v>
@@ -12783,7 +12788,7 @@
         <v>222</v>
       </c>
       <c r="D79" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s" s="30">
         <v>23</v>
@@ -12812,7 +12817,7 @@
         <v>225</v>
       </c>
       <c r="D80" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s" s="30">
         <v>23</v>
@@ -12841,7 +12846,7 @@
         <v>228</v>
       </c>
       <c r="D81" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s" s="30">
         <v>23</v>
@@ -12870,7 +12875,7 @@
         <v>230</v>
       </c>
       <c r="D82" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s" s="30">
         <v>23</v>
@@ -12899,7 +12904,7 @@
         <v>232</v>
       </c>
       <c r="D83" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s" s="30">
         <v>23</v>
@@ -12928,7 +12933,7 @@
         <v>234</v>
       </c>
       <c r="D84" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s" s="30">
         <v>23</v>
@@ -12957,7 +12962,7 @@
         <v>237</v>
       </c>
       <c r="D85" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s" s="30">
         <v>23</v>
@@ -12986,7 +12991,7 @@
         <v>240</v>
       </c>
       <c r="D86" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s" s="30">
         <v>23</v>
@@ -13015,7 +13020,7 @@
         <v>242</v>
       </c>
       <c r="D87" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s" s="30">
         <v>23</v>
@@ -13044,7 +13049,7 @@
         <v>245</v>
       </c>
       <c r="D88" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s" s="30">
         <v>23</v>
@@ -13073,7 +13078,7 @@
         <v>247</v>
       </c>
       <c r="D89" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s" s="30">
         <v>23</v>
@@ -13102,7 +13107,7 @@
         <v>250</v>
       </c>
       <c r="D90" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s" s="30">
         <v>23</v>
@@ -13131,7 +13136,7 @@
         <v>253</v>
       </c>
       <c r="D91" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s" s="30">
         <v>23</v>
@@ -13160,7 +13165,7 @@
         <v>256</v>
       </c>
       <c r="D92" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s" s="30">
         <v>23</v>
@@ -13189,7 +13194,7 @@
         <v>259</v>
       </c>
       <c r="D93" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s" s="30">
         <v>23</v>
@@ -13218,7 +13223,7 @@
         <v>262</v>
       </c>
       <c r="D94" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s" s="30">
         <v>23</v>
@@ -13247,7 +13252,7 @@
         <v>264</v>
       </c>
       <c r="D95" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s" s="30">
         <v>23</v>
@@ -13276,7 +13281,7 @@
         <v>267</v>
       </c>
       <c r="D96" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s" s="30">
         <v>23</v>
@@ -13305,7 +13310,7 @@
         <v>269</v>
       </c>
       <c r="D97" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s" s="30">
         <v>23</v>
@@ -13334,7 +13339,7 @@
         <v>271</v>
       </c>
       <c r="D98" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s" s="30">
         <v>23</v>
@@ -13363,7 +13368,7 @@
         <v>274</v>
       </c>
       <c r="D99" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s" s="30">
         <v>23</v>
@@ -13392,7 +13397,7 @@
         <v>277</v>
       </c>
       <c r="D100" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s" s="30">
         <v>23</v>
@@ -13421,7 +13426,7 @@
         <v>279</v>
       </c>
       <c r="D101" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s" s="30">
         <v>23</v>
@@ -13450,7 +13455,7 @@
         <v>282</v>
       </c>
       <c r="D102" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s" s="30">
         <v>23</v>
@@ -13479,7 +13484,7 @@
         <v>285</v>
       </c>
       <c r="D103" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s" s="30">
         <v>23</v>
@@ -13508,7 +13513,7 @@
         <v>288</v>
       </c>
       <c r="D104" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s" s="30">
         <v>23</v>
@@ -13537,7 +13542,7 @@
         <v>291</v>
       </c>
       <c r="D105" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s" s="30">
         <v>23</v>
@@ -13566,7 +13571,7 @@
         <v>294</v>
       </c>
       <c r="D106" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s" s="30">
         <v>23</v>
@@ -13595,7 +13600,7 @@
         <v>297</v>
       </c>
       <c r="D107" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s" s="30">
         <v>23</v>
@@ -13624,7 +13629,7 @@
         <v>299</v>
       </c>
       <c r="D108" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s" s="30">
         <v>23</v>
@@ -13653,7 +13658,7 @@
         <v>302</v>
       </c>
       <c r="D109" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s" s="30">
         <v>23</v>
@@ -13682,7 +13687,7 @@
         <v>305</v>
       </c>
       <c r="D110" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s" s="30">
         <v>23</v>
@@ -13711,7 +13716,7 @@
         <v>307</v>
       </c>
       <c r="D111" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s" s="30">
         <v>23</v>
@@ -13740,7 +13745,7 @@
         <v>310</v>
       </c>
       <c r="D112" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s" s="30">
         <v>23</v>
@@ -13769,7 +13774,7 @@
         <v>312</v>
       </c>
       <c r="D113" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s" s="30">
         <v>23</v>
@@ -13798,7 +13803,7 @@
         <v>315</v>
       </c>
       <c r="D114" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s" s="30">
         <v>23</v>
@@ -13827,7 +13832,7 @@
         <v>318</v>
       </c>
       <c r="D115" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s" s="30">
         <v>23</v>
@@ -13856,7 +13861,7 @@
         <v>321</v>
       </c>
       <c r="D116" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s" s="30">
         <v>23</v>
@@ -13885,7 +13890,7 @@
         <v>324</v>
       </c>
       <c r="D117" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s" s="30">
         <v>23</v>
@@ -13914,7 +13919,7 @@
         <v>327</v>
       </c>
       <c r="D118" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s" s="30">
         <v>23</v>
@@ -13943,7 +13948,7 @@
         <v>330</v>
       </c>
       <c r="D119" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s" s="30">
         <v>23</v>
@@ -13972,7 +13977,7 @@
         <v>333</v>
       </c>
       <c r="D120" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s" s="30">
         <v>23</v>
@@ -14001,7 +14006,7 @@
         <v>335</v>
       </c>
       <c r="D121" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s" s="30">
         <v>23</v>
@@ -14030,7 +14035,7 @@
         <v>338</v>
       </c>
       <c r="D122" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s" s="30">
         <v>23</v>
@@ -14059,7 +14064,7 @@
         <v>341</v>
       </c>
       <c r="D123" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s" s="30">
         <v>23</v>
@@ -14088,7 +14093,7 @@
         <v>343</v>
       </c>
       <c r="D124" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s" s="30">
         <v>23</v>
@@ -14117,7 +14122,7 @@
         <v>345</v>
       </c>
       <c r="D125" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s" s="30">
         <v>23</v>
@@ -14146,7 +14151,7 @@
         <v>347</v>
       </c>
       <c r="D126" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s" s="30">
         <v>23</v>
@@ -14175,7 +14180,7 @@
         <v>349</v>
       </c>
       <c r="D127" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s" s="30">
         <v>23</v>
@@ -14204,7 +14209,7 @@
         <v>351</v>
       </c>
       <c r="D128" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s" s="30">
         <v>23</v>
@@ -14233,7 +14238,7 @@
         <v>354</v>
       </c>
       <c r="D129" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s" s="30">
         <v>23</v>
@@ -14262,7 +14267,7 @@
         <v>356</v>
       </c>
       <c r="D130" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s" s="30">
         <v>23</v>
@@ -14291,7 +14296,7 @@
         <v>359</v>
       </c>
       <c r="D131" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s" s="30">
         <v>23</v>
@@ -14320,7 +14325,7 @@
         <v>362</v>
       </c>
       <c r="D132" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s" s="30">
         <v>23</v>
@@ -14349,7 +14354,7 @@
         <v>365</v>
       </c>
       <c r="D133" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s" s="30">
         <v>23</v>
@@ -14378,7 +14383,7 @@
         <v>368</v>
       </c>
       <c r="D134" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s" s="30">
         <v>23</v>
@@ -14407,7 +14412,7 @@
         <v>370</v>
       </c>
       <c r="D135" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s" s="30">
         <v>23</v>
@@ -14436,7 +14441,7 @@
         <v>372</v>
       </c>
       <c r="D136" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s" s="30">
         <v>23</v>
@@ -14465,7 +14470,7 @@
         <v>374</v>
       </c>
       <c r="D137" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s" s="30">
         <v>23</v>
@@ -14494,7 +14499,7 @@
         <v>376</v>
       </c>
       <c r="D138" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s" s="30">
         <v>23</v>
@@ -14523,7 +14528,7 @@
         <v>378</v>
       </c>
       <c r="D139" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s" s="30">
         <v>23</v>
@@ -14552,7 +14557,7 @@
         <v>381</v>
       </c>
       <c r="D140" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s" s="30">
         <v>23</v>
@@ -14581,7 +14586,7 @@
         <v>384</v>
       </c>
       <c r="D141" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s" s="30">
         <v>23</v>
@@ -14610,7 +14615,7 @@
         <v>387</v>
       </c>
       <c r="D142" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s" s="30">
         <v>23</v>
@@ -14639,7 +14644,7 @@
         <v>390</v>
       </c>
       <c r="D143" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s" s="30">
         <v>23</v>
@@ -14668,7 +14673,7 @@
         <v>392</v>
       </c>
       <c r="D144" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s" s="30">
         <v>23</v>
@@ -14697,7 +14702,7 @@
         <v>394</v>
       </c>
       <c r="D145" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s" s="30">
         <v>23</v>
@@ -14726,7 +14731,7 @@
         <v>396</v>
       </c>
       <c r="D146" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s" s="30">
         <v>23</v>
@@ -14755,7 +14760,7 @@
         <v>398</v>
       </c>
       <c r="D147" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s" s="30">
         <v>23</v>
@@ -14784,7 +14789,7 @@
         <v>401</v>
       </c>
       <c r="D148" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s" s="30">
         <v>23</v>
@@ -14813,7 +14818,7 @@
         <v>404</v>
       </c>
       <c r="D149" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s" s="30">
         <v>23</v>
@@ -14842,7 +14847,7 @@
         <v>406</v>
       </c>
       <c r="D150" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s" s="30">
         <v>23</v>
@@ -14871,7 +14876,7 @@
         <v>408</v>
       </c>
       <c r="D151" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s" s="30">
         <v>23</v>
@@ -14900,7 +14905,7 @@
         <v>410</v>
       </c>
       <c r="D152" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s" s="30">
         <v>23</v>
@@ -14929,7 +14934,7 @@
         <v>412</v>
       </c>
       <c r="D153" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s" s="30">
         <v>23</v>
@@ -14958,7 +14963,7 @@
         <v>414</v>
       </c>
       <c r="D154" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s" s="30">
         <v>23</v>
@@ -14987,7 +14992,7 @@
         <v>417</v>
       </c>
       <c r="D155" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s" s="30">
         <v>23</v>
@@ -15016,7 +15021,7 @@
         <v>419</v>
       </c>
       <c r="D156" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s" s="30">
         <v>23</v>
@@ -15045,7 +15050,7 @@
         <v>422</v>
       </c>
       <c r="D157" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s" s="30">
         <v>23</v>
@@ -15074,7 +15079,7 @@
         <v>424</v>
       </c>
       <c r="D158" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s" s="30">
         <v>23</v>
@@ -15103,7 +15108,7 @@
         <v>426</v>
       </c>
       <c r="D159" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s" s="30">
         <v>23</v>
@@ -15132,7 +15137,7 @@
         <v>429</v>
       </c>
       <c r="D160" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s" s="30">
         <v>23</v>
@@ -15161,7 +15166,7 @@
         <v>432</v>
       </c>
       <c r="D161" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s" s="30">
         <v>23</v>
@@ -15190,7 +15195,7 @@
         <v>434</v>
       </c>
       <c r="D162" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s" s="30">
         <v>23</v>
@@ -15219,7 +15224,7 @@
         <v>437</v>
       </c>
       <c r="D163" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s" s="30">
         <v>23</v>
@@ -15248,7 +15253,7 @@
         <v>439</v>
       </c>
       <c r="D164" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s" s="30">
         <v>23</v>
@@ -15277,7 +15282,7 @@
         <v>442</v>
       </c>
       <c r="D165" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s" s="30">
         <v>23</v>
@@ -15306,7 +15311,7 @@
         <v>445</v>
       </c>
       <c r="D166" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s" s="30">
         <v>23</v>
@@ -15335,7 +15340,7 @@
         <v>447</v>
       </c>
       <c r="D167" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s" s="30">
         <v>23</v>
@@ -15364,7 +15369,7 @@
         <v>449</v>
       </c>
       <c r="D168" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s" s="30">
         <v>23</v>
@@ -15393,7 +15398,7 @@
         <v>452</v>
       </c>
       <c r="D169" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s" s="30">
         <v>23</v>
@@ -15422,7 +15427,7 @@
         <v>454</v>
       </c>
       <c r="D170" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s" s="30">
         <v>23</v>
@@ -15451,7 +15456,7 @@
         <v>456</v>
       </c>
       <c r="D171" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s" s="30">
         <v>23</v>
@@ -15480,7 +15485,7 @@
         <v>458</v>
       </c>
       <c r="D172" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s" s="30">
         <v>23</v>
@@ -15509,7 +15514,7 @@
         <v>461</v>
       </c>
       <c r="D173" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s" s="30">
         <v>23</v>
@@ -15538,7 +15543,7 @@
         <v>464</v>
       </c>
       <c r="D174" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s" s="30">
         <v>23</v>
@@ -15567,7 +15572,7 @@
         <v>466</v>
       </c>
       <c r="D175" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s" s="30">
         <v>23</v>
@@ -15596,7 +15601,7 @@
         <v>469</v>
       </c>
       <c r="D176" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s" s="30">
         <v>23</v>
@@ -15625,7 +15630,7 @@
         <v>471</v>
       </c>
       <c r="D177" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s" s="30">
         <v>23</v>
@@ -15654,7 +15659,7 @@
         <v>473</v>
       </c>
       <c r="D178" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s" s="30">
         <v>23</v>
@@ -15683,7 +15688,7 @@
         <v>476</v>
       </c>
       <c r="D179" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s" s="30">
         <v>23</v>
@@ -15712,7 +15717,7 @@
         <v>479</v>
       </c>
       <c r="D180" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s" s="30">
         <v>23</v>
@@ -15741,7 +15746,7 @@
         <v>481</v>
       </c>
       <c r="D181" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s" s="30">
         <v>23</v>
@@ -15770,7 +15775,7 @@
         <v>484</v>
       </c>
       <c r="D182" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s" s="30">
         <v>23</v>
@@ -15799,7 +15804,7 @@
         <v>487</v>
       </c>
       <c r="D183" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s" s="30">
         <v>23</v>
@@ -15828,7 +15833,7 @@
         <v>490</v>
       </c>
       <c r="D184" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s" s="30">
         <v>23</v>
@@ -15857,7 +15862,7 @@
         <v>493</v>
       </c>
       <c r="D185" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s" s="30">
         <v>23</v>
@@ -15886,7 +15891,7 @@
         <v>496</v>
       </c>
       <c r="D186" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s" s="30">
         <v>23</v>
@@ -15915,7 +15920,7 @@
         <v>499</v>
       </c>
       <c r="D187" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s" s="30">
         <v>23</v>
@@ -15944,7 +15949,7 @@
         <v>501</v>
       </c>
       <c r="D188" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s" s="30">
         <v>23</v>
@@ -15973,7 +15978,7 @@
         <v>503</v>
       </c>
       <c r="D189" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s" s="30">
         <v>23</v>
@@ -16002,7 +16007,7 @@
         <v>506</v>
       </c>
       <c r="D190" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s" s="30">
         <v>23</v>
@@ -16031,7 +16036,7 @@
         <v>508</v>
       </c>
       <c r="D191" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s" s="30">
         <v>23</v>
@@ -16060,7 +16065,7 @@
         <v>510</v>
       </c>
       <c r="D192" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s" s="30">
         <v>23</v>
@@ -16089,7 +16094,7 @@
         <v>513</v>
       </c>
       <c r="D193" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s" s="30">
         <v>23</v>
@@ -16118,7 +16123,7 @@
         <v>516</v>
       </c>
       <c r="D194" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s" s="30">
         <v>23</v>
@@ -16147,7 +16152,7 @@
         <v>518</v>
       </c>
       <c r="D195" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s" s="30">
         <v>23</v>
@@ -16176,7 +16181,7 @@
         <v>521</v>
       </c>
       <c r="D196" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s" s="30">
         <v>23</v>
@@ -16205,7 +16210,7 @@
         <v>523</v>
       </c>
       <c r="D197" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s" s="30">
         <v>23</v>
@@ -16234,7 +16239,7 @@
         <v>525</v>
       </c>
       <c r="D198" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s" s="30">
         <v>23</v>
@@ -16263,7 +16268,7 @@
         <v>528</v>
       </c>
       <c r="D199" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s" s="30">
         <v>23</v>
@@ -16292,7 +16297,7 @@
         <v>530</v>
       </c>
       <c r="D200" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s" s="30">
         <v>23</v>
@@ -16321,7 +16326,7 @@
         <v>533</v>
       </c>
       <c r="D201" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s" s="30">
         <v>23</v>
@@ -16350,7 +16355,7 @@
         <v>535</v>
       </c>
       <c r="D202" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s" s="30">
         <v>23</v>
@@ -16379,7 +16384,7 @@
         <v>538</v>
       </c>
       <c r="D203" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s" s="30">
         <v>23</v>
@@ -16408,7 +16413,7 @@
         <v>541</v>
       </c>
       <c r="D204" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s" s="30">
         <v>23</v>
@@ -16437,7 +16442,7 @@
         <v>543</v>
       </c>
       <c r="D205" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s" s="30">
         <v>23</v>
@@ -16466,7 +16471,7 @@
         <v>545</v>
       </c>
       <c r="D206" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s" s="30">
         <v>23</v>
@@ -16495,7 +16500,7 @@
         <v>547</v>
       </c>
       <c r="D207" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s" s="30">
         <v>23</v>
@@ -16524,7 +16529,7 @@
         <v>550</v>
       </c>
       <c r="D208" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s" s="30">
         <v>23</v>
@@ -16553,7 +16558,7 @@
         <v>553</v>
       </c>
       <c r="D209" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s" s="30">
         <v>23</v>
@@ -16582,7 +16587,7 @@
         <v>555</v>
       </c>
       <c r="D210" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s" s="30">
         <v>23</v>
@@ -16611,7 +16616,7 @@
         <v>558</v>
       </c>
       <c r="D211" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s" s="30">
         <v>23</v>
@@ -16640,7 +16645,7 @@
         <v>560</v>
       </c>
       <c r="D212" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s" s="30">
         <v>23</v>
@@ -16669,7 +16674,7 @@
         <v>562</v>
       </c>
       <c r="D213" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s" s="30">
         <v>23</v>
@@ -16698,7 +16703,7 @@
         <v>565</v>
       </c>
       <c r="D214" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s" s="30">
         <v>23</v>
@@ -16727,7 +16732,7 @@
         <v>567</v>
       </c>
       <c r="D215" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s" s="30">
         <v>23</v>
@@ -16756,7 +16761,7 @@
         <v>570</v>
       </c>
       <c r="D216" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s" s="30">
         <v>23</v>
@@ -16785,7 +16790,7 @@
         <v>572</v>
       </c>
       <c r="D217" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s" s="30">
         <v>23</v>
@@ -16814,7 +16819,7 @@
         <v>574</v>
       </c>
       <c r="D218" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s" s="30">
         <v>23</v>
@@ -16843,7 +16848,7 @@
         <v>577</v>
       </c>
       <c r="D219" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s" s="30">
         <v>23</v>
@@ -16872,7 +16877,7 @@
         <v>580</v>
       </c>
       <c r="D220" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s" s="30">
         <v>23</v>
@@ -16901,7 +16906,7 @@
         <v>582</v>
       </c>
       <c r="D221" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s" s="30">
         <v>23</v>
@@ -16930,7 +16935,7 @@
         <v>584</v>
       </c>
       <c r="D222" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s" s="30">
         <v>23</v>
@@ -16959,7 +16964,7 @@
         <v>586</v>
       </c>
       <c r="D223" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s" s="30">
         <v>23</v>
@@ -16988,7 +16993,7 @@
         <v>588</v>
       </c>
       <c r="D224" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s" s="30">
         <v>23</v>
@@ -17017,7 +17022,7 @@
         <v>590</v>
       </c>
       <c r="D225" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s" s="30">
         <v>23</v>
@@ -17046,7 +17051,7 @@
         <v>593</v>
       </c>
       <c r="D226" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s" s="30">
         <v>23</v>
@@ -17075,7 +17080,7 @@
         <v>596</v>
       </c>
       <c r="D227" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s" s="30">
         <v>23</v>
@@ -17104,7 +17109,7 @@
         <v>599</v>
       </c>
       <c r="D228" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s" s="30">
         <v>23</v>
@@ -17133,7 +17138,7 @@
         <v>602</v>
       </c>
       <c r="D229" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s" s="30">
         <v>23</v>
@@ -17162,7 +17167,7 @@
         <v>605</v>
       </c>
       <c r="D230" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s" s="30">
         <v>23</v>
@@ -17191,7 +17196,7 @@
         <v>607</v>
       </c>
       <c r="D231" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s" s="30">
         <v>23</v>
@@ -17220,7 +17225,7 @@
         <v>609</v>
       </c>
       <c r="D232" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s" s="30">
         <v>23</v>
@@ -17249,7 +17254,7 @@
         <v>612</v>
       </c>
       <c r="D233" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s" s="30">
         <v>23</v>
@@ -17278,7 +17283,7 @@
         <v>615</v>
       </c>
       <c r="D234" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s" s="30">
         <v>23</v>
@@ -17307,7 +17312,7 @@
         <v>618</v>
       </c>
       <c r="D235" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s" s="30">
         <v>23</v>
@@ -17336,7 +17341,7 @@
         <v>621</v>
       </c>
       <c r="D236" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s" s="30">
         <v>23</v>
@@ -17365,7 +17370,7 @@
         <v>624</v>
       </c>
       <c r="D237" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s" s="30">
         <v>23</v>
@@ -17394,7 +17399,7 @@
         <v>626</v>
       </c>
       <c r="D238" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s" s="30">
         <v>23</v>
@@ -17423,7 +17428,7 @@
         <v>628</v>
       </c>
       <c r="D239" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E239" t="s" s="30">
         <v>23</v>
@@ -17452,7 +17457,7 @@
         <v>630</v>
       </c>
       <c r="D240" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E240" t="s" s="30">
         <v>23</v>
@@ -17481,7 +17486,7 @@
         <v>633</v>
       </c>
       <c r="D241" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E241" t="s" s="30">
         <v>23</v>
@@ -17510,7 +17515,7 @@
         <v>635</v>
       </c>
       <c r="D242" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E242" t="s" s="30">
         <v>23</v>
@@ -17539,7 +17544,7 @@
         <v>637</v>
       </c>
       <c r="D243" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E243" t="s" s="30">
         <v>23</v>
@@ -17568,7 +17573,7 @@
         <v>639</v>
       </c>
       <c r="D244" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E244" t="s" s="30">
         <v>23</v>
@@ -17597,7 +17602,7 @@
         <v>641</v>
       </c>
       <c r="D245" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E245" t="s" s="30">
         <v>23</v>
@@ -17626,7 +17631,7 @@
         <v>644</v>
       </c>
       <c r="D246" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E246" t="s" s="30">
         <v>23</v>
@@ -17655,7 +17660,7 @@
         <v>646</v>
       </c>
       <c r="D247" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E247" t="s" s="30">
         <v>23</v>
@@ -17684,7 +17689,7 @@
         <v>648</v>
       </c>
       <c r="D248" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E248" t="s" s="30">
         <v>23</v>
@@ -17713,7 +17718,7 @@
         <v>651</v>
       </c>
       <c r="D249" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E249" t="s" s="30">
         <v>23</v>
@@ -17742,7 +17747,7 @@
         <v>654</v>
       </c>
       <c r="D250" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E250" t="s" s="30">
         <v>23</v>
@@ -17771,7 +17776,7 @@
         <v>657</v>
       </c>
       <c r="D251" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E251" t="s" s="30">
         <v>23</v>
@@ -17800,7 +17805,7 @@
         <v>660</v>
       </c>
       <c r="D252" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E252" t="s" s="30">
         <v>23</v>
@@ -17829,7 +17834,7 @@
         <v>662</v>
       </c>
       <c r="D253" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E253" t="s" s="30">
         <v>23</v>
@@ -17858,7 +17863,7 @@
         <v>665</v>
       </c>
       <c r="D254" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E254" t="s" s="30">
         <v>23</v>
@@ -17887,7 +17892,7 @@
         <v>667</v>
       </c>
       <c r="D255" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E255" t="s" s="30">
         <v>23</v>
@@ -17914,7 +17919,7 @@
         <v>669</v>
       </c>
       <c r="D256" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E256" t="s" s="30">
         <v>23</v>
@@ -17943,7 +17948,7 @@
         <v>672</v>
       </c>
       <c r="D257" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E257" t="s" s="30">
         <v>23</v>
@@ -17972,7 +17977,7 @@
         <v>674</v>
       </c>
       <c r="D258" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E258" t="s" s="30">
         <v>23</v>
@@ -18001,7 +18006,7 @@
         <v>677</v>
       </c>
       <c r="D259" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E259" t="s" s="30">
         <v>23</v>
@@ -18030,7 +18035,7 @@
         <v>680</v>
       </c>
       <c r="D260" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E260" t="s" s="30">
         <v>23</v>
@@ -18059,7 +18064,7 @@
         <v>683</v>
       </c>
       <c r="D261" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E261" t="s" s="30">
         <v>23</v>
@@ -18088,7 +18093,7 @@
         <v>685</v>
       </c>
       <c r="D262" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E262" t="s" s="30">
         <v>23</v>
@@ -18117,7 +18122,7 @@
         <v>687</v>
       </c>
       <c r="D263" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E263" t="s" s="30">
         <v>23</v>
@@ -18146,7 +18151,7 @@
         <v>689</v>
       </c>
       <c r="D264" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E264" t="s" s="30">
         <v>23</v>
@@ -18175,7 +18180,7 @@
         <v>692</v>
       </c>
       <c r="D265" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E265" t="s" s="30">
         <v>23</v>
@@ -18204,7 +18209,7 @@
         <v>694</v>
       </c>
       <c r="D266" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E266" t="s" s="30">
         <v>23</v>
@@ -18233,7 +18238,7 @@
         <v>697</v>
       </c>
       <c r="D267" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E267" t="s" s="30">
         <v>23</v>
@@ -18262,7 +18267,7 @@
         <v>700</v>
       </c>
       <c r="D268" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E268" t="s" s="30">
         <v>23</v>
@@ -18291,7 +18296,7 @@
         <v>703</v>
       </c>
       <c r="D269" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E269" t="s" s="30">
         <v>23</v>
@@ -18320,7 +18325,7 @@
         <v>705</v>
       </c>
       <c r="D270" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E270" t="s" s="30">
         <v>23</v>
@@ -18349,7 +18354,7 @@
         <v>707</v>
       </c>
       <c r="D271" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E271" t="s" s="30">
         <v>23</v>
@@ -18378,7 +18383,7 @@
         <v>709</v>
       </c>
       <c r="D272" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E272" t="s" s="30">
         <v>23</v>
@@ -18407,7 +18412,7 @@
         <v>711</v>
       </c>
       <c r="D273" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E273" t="s" s="30">
         <v>23</v>
@@ -18436,7 +18441,7 @@
         <v>714</v>
       </c>
       <c r="D274" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E274" t="s" s="30">
         <v>23</v>
@@ -18465,7 +18470,7 @@
         <v>717</v>
       </c>
       <c r="D275" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E275" t="s" s="30">
         <v>23</v>
@@ -18494,7 +18499,7 @@
         <v>720</v>
       </c>
       <c r="D276" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E276" t="s" s="30">
         <v>23</v>
@@ -18523,7 +18528,7 @@
         <v>723</v>
       </c>
       <c r="D277" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E277" t="s" s="30">
         <v>23</v>
@@ -18552,7 +18557,7 @@
         <v>726</v>
       </c>
       <c r="D278" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E278" t="s" s="30">
         <v>23</v>
@@ -18581,7 +18586,7 @@
         <v>729</v>
       </c>
       <c r="D279" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E279" t="s" s="30">
         <v>23</v>
@@ -18610,7 +18615,7 @@
         <v>732</v>
       </c>
       <c r="D280" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E280" t="s" s="30">
         <v>23</v>
@@ -18639,7 +18644,7 @@
         <v>735</v>
       </c>
       <c r="D281" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E281" t="s" s="30">
         <v>23</v>
@@ -18668,7 +18673,7 @@
         <v>737</v>
       </c>
       <c r="D282" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E282" t="s" s="30">
         <v>23</v>
@@ -18697,7 +18702,7 @@
         <v>739</v>
       </c>
       <c r="D283" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E283" t="s" s="30">
         <v>23</v>
@@ -18726,7 +18731,7 @@
         <v>741</v>
       </c>
       <c r="D284" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E284" t="s" s="30">
         <v>23</v>
@@ -18755,7 +18760,7 @@
         <v>743</v>
       </c>
       <c r="D285" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E285" t="s" s="30">
         <v>23</v>
@@ -18784,7 +18789,7 @@
         <v>745</v>
       </c>
       <c r="D286" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E286" t="s" s="30">
         <v>23</v>
@@ -18813,7 +18818,7 @@
         <v>748</v>
       </c>
       <c r="D287" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E287" t="s" s="30">
         <v>23</v>
@@ -18842,7 +18847,7 @@
         <v>750</v>
       </c>
       <c r="D288" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E288" t="s" s="30">
         <v>23</v>
@@ -18871,7 +18876,7 @@
         <v>753</v>
       </c>
       <c r="D289" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E289" t="s" s="30">
         <v>23</v>
@@ -18900,7 +18905,7 @@
         <v>756</v>
       </c>
       <c r="D290" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E290" t="s" s="30">
         <v>23</v>
@@ -18929,7 +18934,7 @@
         <v>759</v>
       </c>
       <c r="D291" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E291" t="s" s="30">
         <v>23</v>
@@ -18958,7 +18963,7 @@
         <v>762</v>
       </c>
       <c r="D292" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E292" t="s" s="30">
         <v>23</v>
@@ -18987,7 +18992,7 @@
         <v>764</v>
       </c>
       <c r="D293" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E293" t="s" s="30">
         <v>23</v>
@@ -19016,7 +19021,7 @@
         <v>766</v>
       </c>
       <c r="D294" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E294" t="s" s="30">
         <v>23</v>
@@ -19045,7 +19050,7 @@
         <v>769</v>
       </c>
       <c r="D295" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E295" t="s" s="30">
         <v>23</v>
@@ -19074,7 +19079,7 @@
         <v>772</v>
       </c>
       <c r="D296" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E296" t="s" s="30">
         <v>23</v>
@@ -19103,7 +19108,7 @@
         <v>775</v>
       </c>
       <c r="D297" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E297" t="s" s="30">
         <v>23</v>
@@ -19132,7 +19137,7 @@
         <v>777</v>
       </c>
       <c r="D298" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E298" t="s" s="30">
         <v>23</v>
@@ -19161,7 +19166,7 @@
         <v>779</v>
       </c>
       <c r="D299" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E299" t="s" s="30">
         <v>23</v>
@@ -19190,7 +19195,7 @@
         <v>782</v>
       </c>
       <c r="D300" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E300" t="s" s="30">
         <v>23</v>
@@ -19219,7 +19224,7 @@
         <v>784</v>
       </c>
       <c r="D301" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E301" t="s" s="30">
         <v>23</v>
@@ -19248,7 +19253,7 @@
         <v>787</v>
       </c>
       <c r="D302" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E302" t="s" s="30">
         <v>23</v>
@@ -19277,7 +19282,7 @@
         <v>790</v>
       </c>
       <c r="D303" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E303" t="s" s="30">
         <v>23</v>
@@ -19306,7 +19311,7 @@
         <v>793</v>
       </c>
       <c r="D304" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E304" t="s" s="30">
         <v>23</v>
@@ -19335,7 +19340,7 @@
         <v>796</v>
       </c>
       <c r="D305" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E305" t="s" s="30">
         <v>23</v>
@@ -19364,7 +19369,7 @@
         <v>798</v>
       </c>
       <c r="D306" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E306" t="s" s="30">
         <v>23</v>
@@ -19393,7 +19398,7 @@
         <v>801</v>
       </c>
       <c r="D307" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E307" t="s" s="30">
         <v>23</v>
@@ -19422,7 +19427,7 @@
         <v>804</v>
       </c>
       <c r="D308" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E308" t="s" s="30">
         <v>23</v>
@@ -19451,7 +19456,7 @@
         <v>806</v>
       </c>
       <c r="D309" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E309" t="s" s="30">
         <v>23</v>
@@ -19480,7 +19485,7 @@
         <v>809</v>
       </c>
       <c r="D310" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E310" t="s" s="30">
         <v>23</v>
@@ -19509,7 +19514,7 @@
         <v>812</v>
       </c>
       <c r="D311" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E311" t="s" s="30">
         <v>23</v>
@@ -19538,7 +19543,7 @@
         <v>814</v>
       </c>
       <c r="D312" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E312" t="s" s="30">
         <v>23</v>
@@ -19567,7 +19572,7 @@
         <v>816</v>
       </c>
       <c r="D313" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E313" t="s" s="30">
         <v>23</v>
@@ -19596,7 +19601,7 @@
         <v>819</v>
       </c>
       <c r="D314" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E314" t="s" s="30">
         <v>23</v>
@@ -19625,7 +19630,7 @@
         <v>822</v>
       </c>
       <c r="D315" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E315" t="s" s="30">
         <v>23</v>
@@ -19654,7 +19659,7 @@
         <v>825</v>
       </c>
       <c r="D316" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E316" t="s" s="30">
         <v>23</v>
@@ -19683,7 +19688,7 @@
         <v>828</v>
       </c>
       <c r="D317" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E317" t="s" s="30">
         <v>23</v>
@@ -19712,7 +19717,7 @@
         <v>830</v>
       </c>
       <c r="D318" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E318" t="s" s="30">
         <v>23</v>
@@ -19741,7 +19746,7 @@
         <v>832</v>
       </c>
       <c r="D319" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E319" t="s" s="30">
         <v>23</v>
@@ -19770,7 +19775,7 @@
         <v>835</v>
       </c>
       <c r="D320" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E320" t="s" s="30">
         <v>23</v>
@@ -19799,7 +19804,7 @@
         <v>838</v>
       </c>
       <c r="D321" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E321" t="s" s="30">
         <v>23</v>
@@ -19828,7 +19833,7 @@
         <v>841</v>
       </c>
       <c r="D322" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E322" t="s" s="30">
         <v>23</v>
@@ -19857,7 +19862,7 @@
         <v>844</v>
       </c>
       <c r="D323" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E323" t="s" s="30">
         <v>23</v>
@@ -19886,7 +19891,7 @@
         <v>847</v>
       </c>
       <c r="D324" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E324" t="s" s="30">
         <v>23</v>
@@ -19915,7 +19920,7 @@
         <v>850</v>
       </c>
       <c r="D325" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E325" t="s" s="30">
         <v>23</v>
@@ -19944,7 +19949,7 @@
         <v>852</v>
       </c>
       <c r="D326" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E326" t="s" s="30">
         <v>23</v>
@@ -19973,7 +19978,7 @@
         <v>855</v>
       </c>
       <c r="D327" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E327" t="s" s="30">
         <v>23</v>
@@ -20002,7 +20007,7 @@
         <v>858</v>
       </c>
       <c r="D328" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E328" t="s" s="30">
         <v>23</v>
@@ -20031,7 +20036,7 @@
         <v>860</v>
       </c>
       <c r="D329" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E329" t="s" s="30">
         <v>23</v>
@@ -20060,7 +20065,7 @@
         <v>863</v>
       </c>
       <c r="D330" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E330" t="s" s="30">
         <v>23</v>
@@ -20089,7 +20094,7 @@
         <v>866</v>
       </c>
       <c r="D331" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E331" t="s" s="30">
         <v>23</v>
@@ -20118,7 +20123,7 @@
         <v>869</v>
       </c>
       <c r="D332" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E332" t="s" s="30">
         <v>23</v>
@@ -20147,7 +20152,7 @@
         <v>872</v>
       </c>
       <c r="D333" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E333" t="s" s="30">
         <v>23</v>
@@ -20176,7 +20181,7 @@
         <v>875</v>
       </c>
       <c r="D334" t="s" s="30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E334" t="s" s="30">
         <v>23</v>
@@ -27883,31 +27888,31 @@
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s" s="26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s" s="26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s" s="27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s" s="27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s" s="27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s" s="27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s" s="27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s" s="27">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17" customHeight="1">
